--- a/1kappa/fraud_tagger_dataframe_kappa.xlsx
+++ b/1kappa/fraud_tagger_dataframe_kappa.xlsx
@@ -22,10 +22,10 @@
     <t>kappa</t>
   </si>
   <si>
-    <t>mspanier@purdue.edu</t>
+    <t>hu417@purdue.edu</t>
   </si>
   <si>
-    <t>hu417@purdue.edu</t>
+    <t>mspanier@purdue.edu</t>
   </si>
 </sst>
 </file>
